--- a/Conversor/Compra Componentes/Componentes Microelectronica.xlsx
+++ b/Conversor/Compra Componentes/Componentes Microelectronica.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="48">
   <si>
     <t xml:space="preserve">Capacitores</t>
   </si>
@@ -170,10 +170,22 @@
     <t xml:space="preserve">Switch Pulsador 4 pines</t>
   </si>
   <si>
-    <t xml:space="preserve">Switch Selector 3 pines</t>
+    <t xml:space="preserve">Llave Palanca 3 patas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LP-SW-213CI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.microelectronicash.com/lp-sw-213ci--det--LP-SW-213CI</t>
   </si>
   <si>
     <t xml:space="preserve">Conector jack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JK-DC021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.microelectronicash.com/jk-dc021--det--JK-DC021</t>
   </si>
 </sst>
 </file>
@@ -228,7 +240,7 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -251,12 +263,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF7F7F7F"/>
         <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FF993300"/>
       </patternFill>
     </fill>
   </fills>
@@ -334,7 +340,7 @@
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -378,19 +384,19 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -473,16 +479,16 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D33" activeCellId="0" sqref="D33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E29" activeCellId="0" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="26.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="26.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="7" style="0" width="10.71"/>
@@ -525,9 +531,6 @@
       <c r="D3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="0" t="n">
-        <v>426.04</v>
-      </c>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
@@ -542,9 +545,7 @@
       <c r="D4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="8" t="n">
-        <v>426.04</v>
-      </c>
+      <c r="E4" s="8"/>
       <c r="F4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -560,9 +561,6 @@
       <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="0" t="n">
-        <v>426.04</v>
-      </c>
       <c r="F5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -578,9 +576,7 @@
       <c r="D6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="8" t="n">
-        <v>426.04</v>
-      </c>
+      <c r="E6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
@@ -595,9 +591,6 @@
       <c r="D7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="0" t="n">
-        <v>426.04</v>
-      </c>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
@@ -612,9 +605,6 @@
       <c r="D8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="0" t="n">
-        <v>986.82</v>
-      </c>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
@@ -629,9 +619,6 @@
       <c r="D9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="0" t="n">
-        <v>317.66</v>
-      </c>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
@@ -646,9 +633,6 @@
       <c r="D10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="0" t="n">
-        <v>132.41</v>
-      </c>
     </row>
     <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
@@ -663,9 +647,6 @@
       <c r="D11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="0" t="n">
-        <v>238.3</v>
-      </c>
     </row>
     <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
@@ -679,9 +660,6 @@
       </c>
       <c r="D12" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="E12" s="0" t="n">
-        <v>2477.96</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -725,9 +703,6 @@
       <c r="D16" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="0" t="n">
-        <v>137.84</v>
-      </c>
     </row>
     <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
@@ -742,9 +717,7 @@
       <c r="D17" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="8" t="n">
-        <v>137.84</v>
-      </c>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
@@ -759,9 +732,6 @@
       <c r="D18" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="0" t="n">
-        <v>137.84</v>
-      </c>
     </row>
     <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
@@ -776,9 +746,7 @@
       <c r="D19" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="8" t="n">
-        <v>137.84</v>
-      </c>
+      <c r="E19" s="8"/>
     </row>
     <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
@@ -793,9 +761,6 @@
       <c r="D20" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="0" t="n">
-        <v>137.84</v>
-      </c>
     </row>
     <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
@@ -810,9 +775,7 @@
       <c r="D21" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="8" t="n">
-        <v>137.84</v>
-      </c>
+      <c r="E21" s="8"/>
     </row>
     <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
@@ -827,9 +790,6 @@
       <c r="D22" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="0" t="n">
-        <v>137.84</v>
-      </c>
     </row>
     <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
@@ -844,9 +804,7 @@
       <c r="D23" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="8" t="n">
-        <v>137.84</v>
-      </c>
+      <c r="E23" s="8"/>
     </row>
     <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
@@ -860,9 +818,6 @@
       </c>
       <c r="D24" s="16" t="s">
         <v>7</v>
-      </c>
-      <c r="E24" s="0" t="n">
-        <v>137.84</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -906,9 +861,6 @@
       <c r="D28" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E28" s="0" t="n">
-        <v>4024.07</v>
-      </c>
     </row>
     <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="11"/>
@@ -951,9 +903,6 @@
       <c r="D32" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="0" t="n">
-        <v>198.24</v>
-      </c>
     </row>
     <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="17" t="s">
@@ -968,9 +917,6 @@
       <c r="D33" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="0" t="n">
-        <v>725.51</v>
-      </c>
     </row>
     <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="18" t="s">
@@ -983,15 +929,15 @@
         <v>5</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E34" s="0" t="n">
-        <v>1523.23</v>
+        <v>43</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="19" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B35" s="20" t="s">
         <v>35</v>
@@ -1000,15 +946,14 @@
         <v>2</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>40</v>
+        <v>46</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D36" s="11"/>
-      <c r="E36" s="0" t="n">
-        <f aca="false">SUM(E7:E35)</f>
-        <v>12290.8</v>
-      </c>
     </row>
     <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D37" s="11"/>
@@ -3877,6 +3822,10 @@
     <mergeCell ref="A26:D26"/>
     <mergeCell ref="A30:D30"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E34" r:id="rId1" display="https://www.microelectronicash.com/lp-sw-213ci--det--LP-SW-213CI"/>
+    <hyperlink ref="E35" r:id="rId2" display="https://www.microelectronicash.com/jk-dc021--det--JK-DC021"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -3898,7 +3847,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="1" style="0" width="10.71"/>
   </cols>
@@ -4905,7 +4854,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="1" style="0" width="10.71"/>
   </cols>

--- a/Conversor/Compra Componentes/Componentes Microelectronica.xlsx
+++ b/Conversor/Compra Componentes/Componentes Microelectronica.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
   <si>
     <t xml:space="preserve">Capacitores</t>
   </si>
@@ -42,25 +42,13 @@
     <t xml:space="preserve">Cerámico SMD</t>
   </si>
   <si>
-    <t xml:space="preserve">10pF</t>
+    <t xml:space="preserve">0.1uF</t>
   </si>
   <si>
     <t xml:space="preserve">1206 (3216)</t>
   </si>
   <si>
-    <t xml:space="preserve">47pF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1nF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1uF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2uF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1uF</t>
+    <t xml:space="preserve">Faltan</t>
   </si>
   <si>
     <t xml:space="preserve">Aluminio SMD</t>
@@ -72,45 +60,7 @@
     <t xml:space="preserve">D=3mm L=5.4mm</t>
   </si>
   <si>
-    <t xml:space="preserve">Electrolítico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.2uF - 6.3V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Radial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.3uF - 25V</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Electrolítico</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> Blindado</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">680uF - 200V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D=25mm L=42mm P=10mm</t>
+    <t xml:space="preserve">Hay de 10uF pero son electroliticos THT</t>
   </si>
   <si>
     <t xml:space="preserve">Resistencias</t>
@@ -119,40 +69,10 @@
     <t xml:space="preserve">Resistencia SMD</t>
   </si>
   <si>
-    <t xml:space="preserve">2.7k (5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">680 (5%)</t>
-  </si>
-  <si>
     <t xml:space="preserve">3.3k (5%)</t>
   </si>
   <si>
-    <t xml:space="preserve">82 (5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33k (5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18k (5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.6 (5%)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27 (5%)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Diodos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MUR860</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TO-220</t>
   </si>
   <si>
     <t xml:space="preserve">Otros</t>
@@ -168,6 +88,9 @@
   </si>
   <si>
     <t xml:space="preserve">Switch Pulsador 4 pines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
   </si>
   <si>
     <t xml:space="preserve">Llave Palanca 3 patas</t>
@@ -195,7 +118,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -232,12 +155,6 @@
       <name val="IBM Plex Sans"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="5">
@@ -307,7 +224,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -344,10 +261,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -364,18 +277,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -390,14 +291,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -480,10 +373,10 @@
   <dimension ref="A1:F1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E29" activeCellId="0" sqref="E29"/>
+      <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.29"/>
@@ -531,3274 +424,3051 @@
       <c r="D3" s="5" t="s">
         <v>7</v>
       </c>
+      <c r="E3" s="8" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>8</v>
+      <c r="B4" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="C4" s="7" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="7" t="n">
-        <v>50</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="9"/>
-    </row>
-    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="7" t="n">
-        <v>50</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="7" t="n">
-        <v>50</v>
+      <c r="E4" s="0" t="s">
+        <v>12</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>7</v>
+    </row>
+    <row r="5" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="10"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="7" t="n">
-        <v>10</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="10"/>
     </row>
     <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="10"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="7" t="n">
-        <v>10</v>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>1</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="B14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="13" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="10" t="s">
+      <c r="B15" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="7" t="n">
-        <v>10</v>
+      <c r="C15" s="7" t="n">
+        <v>2</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
+      <c r="D15" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="10" t="s">
+    </row>
+    <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="7" t="n">
+      <c r="B16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="7" t="n">
+        <v>20</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="11"/>
-    </row>
-    <row r="14" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-    </row>
-    <row r="15" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="7" t="n">
-        <v>50</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="7" t="n">
-        <v>50</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="7" t="n">
-        <v>50</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="6" t="s">
+      <c r="E18" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="7" t="n">
-        <v>50</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="8"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D19" s="10"/>
     </row>
     <row r="20" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="7" t="n">
-        <v>50</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="D20" s="10"/>
     </row>
     <row r="21" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="7" t="n">
-        <v>50</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E21" s="8"/>
+      <c r="D21" s="10"/>
     </row>
     <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="7" t="n">
-        <v>50</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="D22" s="10"/>
     </row>
     <row r="23" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="15" t="n">
-        <v>50</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="8"/>
+      <c r="D23" s="10"/>
     </row>
     <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" s="7" t="n">
-        <v>50</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>7</v>
-      </c>
+      <c r="D24" s="10"/>
     </row>
     <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="11"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="11"/>
+      <c r="D25" s="10"/>
     </row>
     <row r="26" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
+      <c r="D26" s="10"/>
     </row>
     <row r="27" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="D27" s="10"/>
     </row>
     <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C28" s="7" t="n">
-        <v>8</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>36</v>
-      </c>
+      <c r="D28" s="10"/>
     </row>
     <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="11"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="11"/>
+      <c r="D29" s="10"/>
     </row>
     <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
+      <c r="D30" s="10"/>
     </row>
     <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>4</v>
-      </c>
+      <c r="D31" s="10"/>
     </row>
     <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="D32" s="10"/>
     </row>
     <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C33" s="7" t="n">
-        <v>20</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>40</v>
-      </c>
+      <c r="D33" s="10"/>
     </row>
     <row r="34" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E34" s="0" t="s">
-        <v>44</v>
-      </c>
+      <c r="D34" s="10"/>
     </row>
     <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="21" t="n">
-        <v>2</v>
-      </c>
-      <c r="D35" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="E35" s="0" t="s">
-        <v>47</v>
-      </c>
+      <c r="D35" s="10"/>
     </row>
     <row r="36" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D36" s="11"/>
+      <c r="D36" s="10"/>
     </row>
     <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D37" s="11"/>
+      <c r="D37" s="10"/>
     </row>
     <row r="38" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D38" s="11"/>
+      <c r="D38" s="10"/>
     </row>
     <row r="39" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D39" s="11"/>
+      <c r="D39" s="10"/>
     </row>
     <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D40" s="11"/>
+      <c r="D40" s="10"/>
     </row>
     <row r="41" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D41" s="11"/>
+      <c r="D41" s="10"/>
     </row>
     <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D42" s="11"/>
+      <c r="D42" s="10"/>
     </row>
     <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D43" s="11"/>
+      <c r="D43" s="10"/>
     </row>
     <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D44" s="11"/>
+      <c r="D44" s="10"/>
     </row>
     <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D45" s="11"/>
+      <c r="D45" s="10"/>
     </row>
     <row r="46" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D46" s="11"/>
+      <c r="D46" s="10"/>
     </row>
     <row r="47" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D47" s="11"/>
+      <c r="D47" s="10"/>
     </row>
     <row r="48" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D48" s="11"/>
+      <c r="D48" s="10"/>
     </row>
     <row r="49" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D49" s="11"/>
+      <c r="D49" s="10"/>
     </row>
     <row r="50" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D50" s="11"/>
+      <c r="D50" s="10"/>
     </row>
     <row r="51" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D51" s="11"/>
+      <c r="D51" s="10"/>
     </row>
     <row r="52" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D52" s="11"/>
+      <c r="D52" s="10"/>
     </row>
     <row r="53" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D53" s="11"/>
+      <c r="D53" s="10"/>
     </row>
     <row r="54" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D54" s="11"/>
+      <c r="D54" s="10"/>
     </row>
     <row r="55" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D55" s="11"/>
+      <c r="D55" s="10"/>
     </row>
     <row r="56" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D56" s="11"/>
+      <c r="D56" s="10"/>
     </row>
     <row r="57" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D57" s="11"/>
+      <c r="D57" s="10"/>
     </row>
     <row r="58" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D58" s="11"/>
+      <c r="D58" s="10"/>
     </row>
     <row r="59" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D59" s="11"/>
+      <c r="D59" s="10"/>
     </row>
     <row r="60" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D60" s="11"/>
+      <c r="D60" s="10"/>
     </row>
     <row r="61" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D61" s="11"/>
+      <c r="D61" s="10"/>
     </row>
     <row r="62" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D62" s="11"/>
+      <c r="D62" s="10"/>
     </row>
     <row r="63" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D63" s="11"/>
+      <c r="D63" s="10"/>
     </row>
     <row r="64" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D64" s="11"/>
+      <c r="D64" s="10"/>
     </row>
     <row r="65" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D65" s="11"/>
+      <c r="D65" s="10"/>
     </row>
     <row r="66" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D66" s="11"/>
+      <c r="D66" s="10"/>
     </row>
     <row r="67" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D67" s="11"/>
+      <c r="D67" s="10"/>
     </row>
     <row r="68" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D68" s="11"/>
+      <c r="D68" s="10"/>
     </row>
     <row r="69" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D69" s="11"/>
+      <c r="D69" s="10"/>
     </row>
     <row r="70" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D70" s="11"/>
+      <c r="D70" s="10"/>
     </row>
     <row r="71" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D71" s="11"/>
+      <c r="D71" s="10"/>
     </row>
     <row r="72" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D72" s="11"/>
+      <c r="D72" s="10"/>
     </row>
     <row r="73" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D73" s="11"/>
+      <c r="D73" s="10"/>
     </row>
     <row r="74" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D74" s="11"/>
+      <c r="D74" s="10"/>
     </row>
     <row r="75" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D75" s="11"/>
+      <c r="D75" s="10"/>
     </row>
     <row r="76" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D76" s="11"/>
+      <c r="D76" s="10"/>
     </row>
     <row r="77" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D77" s="11"/>
+      <c r="D77" s="10"/>
     </row>
     <row r="78" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D78" s="11"/>
+      <c r="D78" s="10"/>
     </row>
     <row r="79" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D79" s="11"/>
+      <c r="D79" s="10"/>
     </row>
     <row r="80" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D80" s="11"/>
+      <c r="D80" s="10"/>
     </row>
     <row r="81" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D81" s="11"/>
+      <c r="D81" s="10"/>
     </row>
     <row r="82" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D82" s="11"/>
+      <c r="D82" s="10"/>
     </row>
     <row r="83" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D83" s="11"/>
+      <c r="D83" s="10"/>
     </row>
     <row r="84" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D84" s="11"/>
+      <c r="D84" s="10"/>
     </row>
     <row r="85" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D85" s="11"/>
+      <c r="D85" s="10"/>
     </row>
     <row r="86" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D86" s="11"/>
+      <c r="D86" s="10"/>
     </row>
     <row r="87" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D87" s="11"/>
+      <c r="D87" s="10"/>
     </row>
     <row r="88" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D88" s="11"/>
+      <c r="D88" s="10"/>
     </row>
     <row r="89" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D89" s="11"/>
+      <c r="D89" s="10"/>
     </row>
     <row r="90" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D90" s="11"/>
+      <c r="D90" s="10"/>
     </row>
     <row r="91" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D91" s="11"/>
+      <c r="D91" s="10"/>
     </row>
     <row r="92" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D92" s="11"/>
+      <c r="D92" s="10"/>
     </row>
     <row r="93" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D93" s="11"/>
+      <c r="D93" s="10"/>
     </row>
     <row r="94" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D94" s="11"/>
+      <c r="D94" s="10"/>
     </row>
     <row r="95" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D95" s="11"/>
+      <c r="D95" s="10"/>
     </row>
     <row r="96" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D96" s="11"/>
+      <c r="D96" s="10"/>
     </row>
     <row r="97" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D97" s="11"/>
+      <c r="D97" s="10"/>
     </row>
     <row r="98" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D98" s="11"/>
+      <c r="D98" s="10"/>
     </row>
     <row r="99" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D99" s="11"/>
+      <c r="D99" s="10"/>
     </row>
     <row r="100" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D100" s="11"/>
+      <c r="D100" s="10"/>
     </row>
     <row r="101" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D101" s="11"/>
+      <c r="D101" s="10"/>
     </row>
     <row r="102" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D102" s="11"/>
+      <c r="D102" s="10"/>
     </row>
     <row r="103" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D103" s="11"/>
+      <c r="D103" s="10"/>
     </row>
     <row r="104" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D104" s="11"/>
+      <c r="D104" s="10"/>
     </row>
     <row r="105" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D105" s="11"/>
+      <c r="D105" s="10"/>
     </row>
     <row r="106" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D106" s="11"/>
+      <c r="D106" s="10"/>
     </row>
     <row r="107" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D107" s="11"/>
+      <c r="D107" s="10"/>
     </row>
     <row r="108" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D108" s="11"/>
+      <c r="D108" s="10"/>
     </row>
     <row r="109" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D109" s="11"/>
+      <c r="D109" s="10"/>
     </row>
     <row r="110" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D110" s="11"/>
+      <c r="D110" s="10"/>
     </row>
     <row r="111" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D111" s="11"/>
+      <c r="D111" s="10"/>
     </row>
     <row r="112" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D112" s="11"/>
+      <c r="D112" s="10"/>
     </row>
     <row r="113" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D113" s="11"/>
+      <c r="D113" s="10"/>
     </row>
     <row r="114" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D114" s="11"/>
+      <c r="D114" s="10"/>
     </row>
     <row r="115" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D115" s="11"/>
+      <c r="D115" s="10"/>
     </row>
     <row r="116" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D116" s="11"/>
+      <c r="D116" s="10"/>
     </row>
     <row r="117" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D117" s="11"/>
+      <c r="D117" s="10"/>
     </row>
     <row r="118" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D118" s="11"/>
+      <c r="D118" s="10"/>
     </row>
     <row r="119" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D119" s="11"/>
+      <c r="D119" s="10"/>
     </row>
     <row r="120" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D120" s="11"/>
+      <c r="D120" s="10"/>
     </row>
     <row r="121" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D121" s="11"/>
+      <c r="D121" s="10"/>
     </row>
     <row r="122" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D122" s="11"/>
+      <c r="D122" s="10"/>
     </row>
     <row r="123" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D123" s="11"/>
+      <c r="D123" s="10"/>
     </row>
     <row r="124" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D124" s="11"/>
+      <c r="D124" s="10"/>
     </row>
     <row r="125" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D125" s="11"/>
+      <c r="D125" s="10"/>
     </row>
     <row r="126" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D126" s="11"/>
+      <c r="D126" s="10"/>
     </row>
     <row r="127" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D127" s="11"/>
+      <c r="D127" s="10"/>
     </row>
     <row r="128" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D128" s="11"/>
+      <c r="D128" s="10"/>
     </row>
     <row r="129" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D129" s="11"/>
+      <c r="D129" s="10"/>
     </row>
     <row r="130" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D130" s="11"/>
+      <c r="D130" s="10"/>
     </row>
     <row r="131" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D131" s="11"/>
+      <c r="D131" s="10"/>
     </row>
     <row r="132" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D132" s="11"/>
+      <c r="D132" s="10"/>
     </row>
     <row r="133" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D133" s="11"/>
+      <c r="D133" s="10"/>
     </row>
     <row r="134" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D134" s="11"/>
+      <c r="D134" s="10"/>
     </row>
     <row r="135" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D135" s="11"/>
+      <c r="D135" s="10"/>
     </row>
     <row r="136" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D136" s="11"/>
+      <c r="D136" s="10"/>
     </row>
     <row r="137" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D137" s="11"/>
+      <c r="D137" s="10"/>
     </row>
     <row r="138" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D138" s="11"/>
+      <c r="D138" s="10"/>
     </row>
     <row r="139" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D139" s="11"/>
+      <c r="D139" s="10"/>
     </row>
     <row r="140" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D140" s="11"/>
+      <c r="D140" s="10"/>
     </row>
     <row r="141" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D141" s="11"/>
+      <c r="D141" s="10"/>
     </row>
     <row r="142" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D142" s="11"/>
+      <c r="D142" s="10"/>
     </row>
     <row r="143" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D143" s="11"/>
+      <c r="D143" s="10"/>
     </row>
     <row r="144" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D144" s="11"/>
+      <c r="D144" s="10"/>
     </row>
     <row r="145" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D145" s="11"/>
+      <c r="D145" s="10"/>
     </row>
     <row r="146" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D146" s="11"/>
+      <c r="D146" s="10"/>
     </row>
     <row r="147" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D147" s="11"/>
+      <c r="D147" s="10"/>
     </row>
     <row r="148" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D148" s="11"/>
+      <c r="D148" s="10"/>
     </row>
     <row r="149" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D149" s="11"/>
+      <c r="D149" s="10"/>
     </row>
     <row r="150" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D150" s="11"/>
+      <c r="D150" s="10"/>
     </row>
     <row r="151" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D151" s="11"/>
+      <c r="D151" s="10"/>
     </row>
     <row r="152" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D152" s="11"/>
+      <c r="D152" s="10"/>
     </row>
     <row r="153" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D153" s="11"/>
+      <c r="D153" s="10"/>
     </row>
     <row r="154" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D154" s="11"/>
+      <c r="D154" s="10"/>
     </row>
     <row r="155" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D155" s="11"/>
+      <c r="D155" s="10"/>
     </row>
     <row r="156" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D156" s="11"/>
+      <c r="D156" s="10"/>
     </row>
     <row r="157" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D157" s="11"/>
+      <c r="D157" s="10"/>
     </row>
     <row r="158" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D158" s="11"/>
+      <c r="D158" s="10"/>
     </row>
     <row r="159" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D159" s="11"/>
+      <c r="D159" s="10"/>
     </row>
     <row r="160" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D160" s="11"/>
+      <c r="D160" s="10"/>
     </row>
     <row r="161" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D161" s="11"/>
+      <c r="D161" s="10"/>
     </row>
     <row r="162" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D162" s="11"/>
+      <c r="D162" s="10"/>
     </row>
     <row r="163" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D163" s="11"/>
+      <c r="D163" s="10"/>
     </row>
     <row r="164" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D164" s="11"/>
+      <c r="D164" s="10"/>
     </row>
     <row r="165" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D165" s="11"/>
+      <c r="D165" s="10"/>
     </row>
     <row r="166" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D166" s="11"/>
+      <c r="D166" s="10"/>
     </row>
     <row r="167" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D167" s="11"/>
+      <c r="D167" s="10"/>
     </row>
     <row r="168" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D168" s="11"/>
+      <c r="D168" s="10"/>
     </row>
     <row r="169" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D169" s="11"/>
+      <c r="D169" s="10"/>
     </row>
     <row r="170" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D170" s="11"/>
+      <c r="D170" s="10"/>
     </row>
     <row r="171" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D171" s="11"/>
+      <c r="D171" s="10"/>
     </row>
     <row r="172" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D172" s="11"/>
+      <c r="D172" s="10"/>
     </row>
     <row r="173" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D173" s="11"/>
+      <c r="D173" s="10"/>
     </row>
     <row r="174" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D174" s="11"/>
+      <c r="D174" s="10"/>
     </row>
     <row r="175" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D175" s="11"/>
+      <c r="D175" s="10"/>
     </row>
     <row r="176" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D176" s="11"/>
+      <c r="D176" s="10"/>
     </row>
     <row r="177" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D177" s="11"/>
+      <c r="D177" s="10"/>
     </row>
     <row r="178" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D178" s="11"/>
+      <c r="D178" s="10"/>
     </row>
     <row r="179" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D179" s="11"/>
+      <c r="D179" s="10"/>
     </row>
     <row r="180" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D180" s="11"/>
+      <c r="D180" s="10"/>
     </row>
     <row r="181" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D181" s="11"/>
+      <c r="D181" s="10"/>
     </row>
     <row r="182" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D182" s="11"/>
+      <c r="D182" s="10"/>
     </row>
     <row r="183" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D183" s="11"/>
+      <c r="D183" s="10"/>
     </row>
     <row r="184" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D184" s="11"/>
+      <c r="D184" s="10"/>
     </row>
     <row r="185" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D185" s="11"/>
+      <c r="D185" s="10"/>
     </row>
     <row r="186" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D186" s="11"/>
+      <c r="D186" s="10"/>
     </row>
     <row r="187" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D187" s="11"/>
+      <c r="D187" s="10"/>
     </row>
     <row r="188" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D188" s="11"/>
+      <c r="D188" s="10"/>
     </row>
     <row r="189" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D189" s="11"/>
+      <c r="D189" s="10"/>
     </row>
     <row r="190" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D190" s="11"/>
+      <c r="D190" s="10"/>
     </row>
     <row r="191" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D191" s="11"/>
+      <c r="D191" s="10"/>
     </row>
     <row r="192" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D192" s="11"/>
+      <c r="D192" s="10"/>
     </row>
     <row r="193" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D193" s="11"/>
+      <c r="D193" s="10"/>
     </row>
     <row r="194" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D194" s="11"/>
+      <c r="D194" s="10"/>
     </row>
     <row r="195" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D195" s="11"/>
+      <c r="D195" s="10"/>
     </row>
     <row r="196" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D196" s="11"/>
+      <c r="D196" s="10"/>
     </row>
     <row r="197" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D197" s="11"/>
+      <c r="D197" s="10"/>
     </row>
     <row r="198" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D198" s="11"/>
+      <c r="D198" s="10"/>
     </row>
     <row r="199" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D199" s="11"/>
+      <c r="D199" s="10"/>
     </row>
     <row r="200" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D200" s="11"/>
+      <c r="D200" s="10"/>
     </row>
     <row r="201" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D201" s="11"/>
+      <c r="D201" s="10"/>
     </row>
     <row r="202" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D202" s="11"/>
+      <c r="D202" s="10"/>
     </row>
     <row r="203" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D203" s="11"/>
+      <c r="D203" s="10"/>
     </row>
     <row r="204" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D204" s="11"/>
+      <c r="D204" s="10"/>
     </row>
     <row r="205" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D205" s="11"/>
+      <c r="D205" s="10"/>
     </row>
     <row r="206" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D206" s="11"/>
+      <c r="D206" s="10"/>
     </row>
     <row r="207" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D207" s="11"/>
+      <c r="D207" s="10"/>
     </row>
     <row r="208" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D208" s="11"/>
+      <c r="D208" s="10"/>
     </row>
     <row r="209" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D209" s="11"/>
+      <c r="D209" s="10"/>
     </row>
     <row r="210" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D210" s="11"/>
+      <c r="D210" s="10"/>
     </row>
     <row r="211" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D211" s="11"/>
+      <c r="D211" s="10"/>
     </row>
     <row r="212" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D212" s="11"/>
+      <c r="D212" s="10"/>
     </row>
     <row r="213" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D213" s="11"/>
+      <c r="D213" s="10"/>
     </row>
     <row r="214" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D214" s="11"/>
+      <c r="D214" s="10"/>
     </row>
     <row r="215" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D215" s="11"/>
+      <c r="D215" s="10"/>
     </row>
     <row r="216" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D216" s="11"/>
+      <c r="D216" s="10"/>
     </row>
     <row r="217" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D217" s="11"/>
+      <c r="D217" s="10"/>
     </row>
     <row r="218" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D218" s="11"/>
+      <c r="D218" s="10"/>
     </row>
     <row r="219" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D219" s="11"/>
+      <c r="D219" s="10"/>
     </row>
     <row r="220" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D220" s="11"/>
+      <c r="D220" s="10"/>
     </row>
     <row r="221" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D221" s="11"/>
+      <c r="D221" s="10"/>
     </row>
     <row r="222" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D222" s="11"/>
+      <c r="D222" s="10"/>
     </row>
     <row r="223" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D223" s="11"/>
+      <c r="D223" s="10"/>
     </row>
     <row r="224" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D224" s="11"/>
+      <c r="D224" s="10"/>
     </row>
     <row r="225" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D225" s="11"/>
+      <c r="D225" s="10"/>
     </row>
     <row r="226" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D226" s="11"/>
+      <c r="D226" s="10"/>
     </row>
     <row r="227" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D227" s="11"/>
+      <c r="D227" s="10"/>
     </row>
     <row r="228" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D228" s="11"/>
+      <c r="D228" s="10"/>
     </row>
     <row r="229" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D229" s="11"/>
+      <c r="D229" s="10"/>
     </row>
     <row r="230" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D230" s="11"/>
+      <c r="D230" s="10"/>
     </row>
     <row r="231" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D231" s="11"/>
+      <c r="D231" s="10"/>
     </row>
     <row r="232" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D232" s="11"/>
+      <c r="D232" s="10"/>
     </row>
     <row r="233" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D233" s="11"/>
+      <c r="D233" s="10"/>
     </row>
     <row r="234" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D234" s="11"/>
+      <c r="D234" s="10"/>
     </row>
     <row r="235" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D235" s="11"/>
+      <c r="D235" s="10"/>
     </row>
     <row r="236" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D236" s="11"/>
+      <c r="D236" s="10"/>
     </row>
     <row r="237" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D237" s="11"/>
+      <c r="D237" s="10"/>
     </row>
     <row r="238" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D238" s="11"/>
+      <c r="D238" s="10"/>
     </row>
     <row r="239" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D239" s="11"/>
+      <c r="D239" s="10"/>
     </row>
     <row r="240" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D240" s="11"/>
+      <c r="D240" s="10"/>
     </row>
     <row r="241" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D241" s="11"/>
+      <c r="D241" s="10"/>
     </row>
     <row r="242" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D242" s="11"/>
+      <c r="D242" s="10"/>
     </row>
     <row r="243" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D243" s="11"/>
+      <c r="D243" s="10"/>
     </row>
     <row r="244" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D244" s="11"/>
+      <c r="D244" s="10"/>
     </row>
     <row r="245" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D245" s="11"/>
+      <c r="D245" s="10"/>
     </row>
     <row r="246" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D246" s="11"/>
+      <c r="D246" s="10"/>
     </row>
     <row r="247" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D247" s="11"/>
+      <c r="D247" s="10"/>
     </row>
     <row r="248" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D248" s="11"/>
+      <c r="D248" s="10"/>
     </row>
     <row r="249" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D249" s="11"/>
+      <c r="D249" s="10"/>
     </row>
     <row r="250" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D250" s="11"/>
+      <c r="D250" s="10"/>
     </row>
     <row r="251" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D251" s="11"/>
+      <c r="D251" s="10"/>
     </row>
     <row r="252" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D252" s="11"/>
+      <c r="D252" s="10"/>
     </row>
     <row r="253" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D253" s="11"/>
+      <c r="D253" s="10"/>
     </row>
     <row r="254" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D254" s="11"/>
+      <c r="D254" s="10"/>
     </row>
     <row r="255" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D255" s="11"/>
+      <c r="D255" s="10"/>
     </row>
     <row r="256" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D256" s="11"/>
+      <c r="D256" s="10"/>
     </row>
     <row r="257" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D257" s="11"/>
+      <c r="D257" s="10"/>
     </row>
     <row r="258" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D258" s="11"/>
+      <c r="D258" s="10"/>
     </row>
     <row r="259" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D259" s="11"/>
+      <c r="D259" s="10"/>
     </row>
     <row r="260" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D260" s="11"/>
+      <c r="D260" s="10"/>
     </row>
     <row r="261" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D261" s="11"/>
+      <c r="D261" s="10"/>
     </row>
     <row r="262" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D262" s="11"/>
+      <c r="D262" s="10"/>
     </row>
     <row r="263" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D263" s="11"/>
+      <c r="D263" s="10"/>
     </row>
     <row r="264" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D264" s="11"/>
+      <c r="D264" s="10"/>
     </row>
     <row r="265" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D265" s="11"/>
+      <c r="D265" s="10"/>
     </row>
     <row r="266" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D266" s="11"/>
+      <c r="D266" s="10"/>
     </row>
     <row r="267" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D267" s="11"/>
+      <c r="D267" s="10"/>
     </row>
     <row r="268" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D268" s="11"/>
+      <c r="D268" s="10"/>
     </row>
     <row r="269" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D269" s="11"/>
+      <c r="D269" s="10"/>
     </row>
     <row r="270" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D270" s="11"/>
+      <c r="D270" s="10"/>
     </row>
     <row r="271" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D271" s="11"/>
+      <c r="D271" s="10"/>
     </row>
     <row r="272" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D272" s="11"/>
+      <c r="D272" s="10"/>
     </row>
     <row r="273" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D273" s="11"/>
+      <c r="D273" s="10"/>
     </row>
     <row r="274" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D274" s="11"/>
+      <c r="D274" s="10"/>
     </row>
     <row r="275" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D275" s="11"/>
+      <c r="D275" s="10"/>
     </row>
     <row r="276" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D276" s="11"/>
+      <c r="D276" s="10"/>
     </row>
     <row r="277" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D277" s="11"/>
+      <c r="D277" s="10"/>
     </row>
     <row r="278" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D278" s="11"/>
+      <c r="D278" s="10"/>
     </row>
     <row r="279" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D279" s="11"/>
+      <c r="D279" s="10"/>
     </row>
     <row r="280" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D280" s="11"/>
+      <c r="D280" s="10"/>
     </row>
     <row r="281" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D281" s="11"/>
+      <c r="D281" s="10"/>
     </row>
     <row r="282" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D282" s="11"/>
+      <c r="D282" s="10"/>
     </row>
     <row r="283" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D283" s="11"/>
+      <c r="D283" s="10"/>
     </row>
     <row r="284" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D284" s="11"/>
+      <c r="D284" s="10"/>
     </row>
     <row r="285" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D285" s="11"/>
+      <c r="D285" s="10"/>
     </row>
     <row r="286" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D286" s="11"/>
+      <c r="D286" s="10"/>
     </row>
     <row r="287" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D287" s="11"/>
+      <c r="D287" s="10"/>
     </row>
     <row r="288" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D288" s="11"/>
+      <c r="D288" s="10"/>
     </row>
     <row r="289" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D289" s="11"/>
+      <c r="D289" s="10"/>
     </row>
     <row r="290" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D290" s="11"/>
+      <c r="D290" s="10"/>
     </row>
     <row r="291" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D291" s="11"/>
+      <c r="D291" s="10"/>
     </row>
     <row r="292" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D292" s="11"/>
+      <c r="D292" s="10"/>
     </row>
     <row r="293" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D293" s="11"/>
+      <c r="D293" s="10"/>
     </row>
     <row r="294" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D294" s="11"/>
+      <c r="D294" s="10"/>
     </row>
     <row r="295" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D295" s="11"/>
+      <c r="D295" s="10"/>
     </row>
     <row r="296" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D296" s="11"/>
+      <c r="D296" s="10"/>
     </row>
     <row r="297" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D297" s="11"/>
+      <c r="D297" s="10"/>
     </row>
     <row r="298" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D298" s="11"/>
+      <c r="D298" s="10"/>
     </row>
     <row r="299" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D299" s="11"/>
+      <c r="D299" s="10"/>
     </row>
     <row r="300" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D300" s="11"/>
+      <c r="D300" s="10"/>
     </row>
     <row r="301" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D301" s="11"/>
+      <c r="D301" s="10"/>
     </row>
     <row r="302" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D302" s="11"/>
+      <c r="D302" s="10"/>
     </row>
     <row r="303" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D303" s="11"/>
+      <c r="D303" s="10"/>
     </row>
     <row r="304" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D304" s="11"/>
+      <c r="D304" s="10"/>
     </row>
     <row r="305" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D305" s="11"/>
+      <c r="D305" s="10"/>
     </row>
     <row r="306" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D306" s="11"/>
+      <c r="D306" s="10"/>
     </row>
     <row r="307" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D307" s="11"/>
+      <c r="D307" s="10"/>
     </row>
     <row r="308" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D308" s="11"/>
+      <c r="D308" s="10"/>
     </row>
     <row r="309" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D309" s="11"/>
+      <c r="D309" s="10"/>
     </row>
     <row r="310" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D310" s="11"/>
+      <c r="D310" s="10"/>
     </row>
     <row r="311" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D311" s="11"/>
+      <c r="D311" s="10"/>
     </row>
     <row r="312" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D312" s="11"/>
+      <c r="D312" s="10"/>
     </row>
     <row r="313" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D313" s="11"/>
+      <c r="D313" s="10"/>
     </row>
     <row r="314" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D314" s="11"/>
+      <c r="D314" s="10"/>
     </row>
     <row r="315" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D315" s="11"/>
+      <c r="D315" s="10"/>
     </row>
     <row r="316" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D316" s="11"/>
+      <c r="D316" s="10"/>
     </row>
     <row r="317" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D317" s="11"/>
+      <c r="D317" s="10"/>
     </row>
     <row r="318" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D318" s="11"/>
+      <c r="D318" s="10"/>
     </row>
     <row r="319" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D319" s="11"/>
+      <c r="D319" s="10"/>
     </row>
     <row r="320" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D320" s="11"/>
+      <c r="D320" s="10"/>
     </row>
     <row r="321" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D321" s="11"/>
+      <c r="D321" s="10"/>
     </row>
     <row r="322" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D322" s="11"/>
+      <c r="D322" s="10"/>
     </row>
     <row r="323" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D323" s="11"/>
+      <c r="D323" s="10"/>
     </row>
     <row r="324" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D324" s="11"/>
+      <c r="D324" s="10"/>
     </row>
     <row r="325" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D325" s="11"/>
+      <c r="D325" s="10"/>
     </row>
     <row r="326" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D326" s="11"/>
+      <c r="D326" s="10"/>
     </row>
     <row r="327" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D327" s="11"/>
+      <c r="D327" s="10"/>
     </row>
     <row r="328" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D328" s="11"/>
+      <c r="D328" s="10"/>
     </row>
     <row r="329" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D329" s="11"/>
+      <c r="D329" s="10"/>
     </row>
     <row r="330" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D330" s="11"/>
+      <c r="D330" s="10"/>
     </row>
     <row r="331" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D331" s="11"/>
+      <c r="D331" s="10"/>
     </row>
     <row r="332" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D332" s="11"/>
+      <c r="D332" s="10"/>
     </row>
     <row r="333" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D333" s="11"/>
+      <c r="D333" s="10"/>
     </row>
     <row r="334" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D334" s="11"/>
+      <c r="D334" s="10"/>
     </row>
     <row r="335" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D335" s="11"/>
+      <c r="D335" s="10"/>
     </row>
     <row r="336" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D336" s="11"/>
+      <c r="D336" s="10"/>
     </row>
     <row r="337" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D337" s="11"/>
+      <c r="D337" s="10"/>
     </row>
     <row r="338" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D338" s="11"/>
+      <c r="D338" s="10"/>
     </row>
     <row r="339" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D339" s="11"/>
+      <c r="D339" s="10"/>
     </row>
     <row r="340" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D340" s="11"/>
+      <c r="D340" s="10"/>
     </row>
     <row r="341" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D341" s="11"/>
+      <c r="D341" s="10"/>
     </row>
     <row r="342" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D342" s="11"/>
+      <c r="D342" s="10"/>
     </row>
     <row r="343" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D343" s="11"/>
+      <c r="D343" s="10"/>
     </row>
     <row r="344" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D344" s="11"/>
+      <c r="D344" s="10"/>
     </row>
     <row r="345" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D345" s="11"/>
+      <c r="D345" s="10"/>
     </row>
     <row r="346" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D346" s="11"/>
+      <c r="D346" s="10"/>
     </row>
     <row r="347" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D347" s="11"/>
+      <c r="D347" s="10"/>
     </row>
     <row r="348" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D348" s="11"/>
+      <c r="D348" s="10"/>
     </row>
     <row r="349" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D349" s="11"/>
+      <c r="D349" s="10"/>
     </row>
     <row r="350" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D350" s="11"/>
+      <c r="D350" s="10"/>
     </row>
     <row r="351" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D351" s="11"/>
+      <c r="D351" s="10"/>
     </row>
     <row r="352" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D352" s="11"/>
+      <c r="D352" s="10"/>
     </row>
     <row r="353" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D353" s="11"/>
+      <c r="D353" s="10"/>
     </row>
     <row r="354" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D354" s="11"/>
+      <c r="D354" s="10"/>
     </row>
     <row r="355" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D355" s="11"/>
+      <c r="D355" s="10"/>
     </row>
     <row r="356" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D356" s="11"/>
+      <c r="D356" s="10"/>
     </row>
     <row r="357" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D357" s="11"/>
+      <c r="D357" s="10"/>
     </row>
     <row r="358" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D358" s="11"/>
+      <c r="D358" s="10"/>
     </row>
     <row r="359" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D359" s="11"/>
+      <c r="D359" s="10"/>
     </row>
     <row r="360" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D360" s="11"/>
+      <c r="D360" s="10"/>
     </row>
     <row r="361" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D361" s="11"/>
+      <c r="D361" s="10"/>
     </row>
     <row r="362" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D362" s="11"/>
+      <c r="D362" s="10"/>
     </row>
     <row r="363" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D363" s="11"/>
+      <c r="D363" s="10"/>
     </row>
     <row r="364" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D364" s="11"/>
+      <c r="D364" s="10"/>
     </row>
     <row r="365" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D365" s="11"/>
+      <c r="D365" s="10"/>
     </row>
     <row r="366" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D366" s="11"/>
+      <c r="D366" s="10"/>
     </row>
     <row r="367" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D367" s="11"/>
+      <c r="D367" s="10"/>
     </row>
     <row r="368" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D368" s="11"/>
+      <c r="D368" s="10"/>
     </row>
     <row r="369" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D369" s="11"/>
+      <c r="D369" s="10"/>
     </row>
     <row r="370" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D370" s="11"/>
+      <c r="D370" s="10"/>
     </row>
     <row r="371" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D371" s="11"/>
+      <c r="D371" s="10"/>
     </row>
     <row r="372" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D372" s="11"/>
+      <c r="D372" s="10"/>
     </row>
     <row r="373" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D373" s="11"/>
+      <c r="D373" s="10"/>
     </row>
     <row r="374" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D374" s="11"/>
+      <c r="D374" s="10"/>
     </row>
     <row r="375" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D375" s="11"/>
+      <c r="D375" s="10"/>
     </row>
     <row r="376" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D376" s="11"/>
+      <c r="D376" s="10"/>
     </row>
     <row r="377" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D377" s="11"/>
+      <c r="D377" s="10"/>
     </row>
     <row r="378" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D378" s="11"/>
+      <c r="D378" s="10"/>
     </row>
     <row r="379" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D379" s="11"/>
+      <c r="D379" s="10"/>
     </row>
     <row r="380" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D380" s="11"/>
+      <c r="D380" s="10"/>
     </row>
     <row r="381" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D381" s="11"/>
+      <c r="D381" s="10"/>
     </row>
     <row r="382" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D382" s="11"/>
+      <c r="D382" s="10"/>
     </row>
     <row r="383" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D383" s="11"/>
+      <c r="D383" s="10"/>
     </row>
     <row r="384" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D384" s="11"/>
+      <c r="D384" s="10"/>
     </row>
     <row r="385" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D385" s="11"/>
+      <c r="D385" s="10"/>
     </row>
     <row r="386" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D386" s="11"/>
+      <c r="D386" s="10"/>
     </row>
     <row r="387" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D387" s="11"/>
+      <c r="D387" s="10"/>
     </row>
     <row r="388" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D388" s="11"/>
+      <c r="D388" s="10"/>
     </row>
     <row r="389" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D389" s="11"/>
+      <c r="D389" s="10"/>
     </row>
     <row r="390" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D390" s="11"/>
+      <c r="D390" s="10"/>
     </row>
     <row r="391" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D391" s="11"/>
+      <c r="D391" s="10"/>
     </row>
     <row r="392" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D392" s="11"/>
+      <c r="D392" s="10"/>
     </row>
     <row r="393" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D393" s="11"/>
+      <c r="D393" s="10"/>
     </row>
     <row r="394" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D394" s="11"/>
+      <c r="D394" s="10"/>
     </row>
     <row r="395" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D395" s="11"/>
+      <c r="D395" s="10"/>
     </row>
     <row r="396" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D396" s="11"/>
+      <c r="D396" s="10"/>
     </row>
     <row r="397" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D397" s="11"/>
+      <c r="D397" s="10"/>
     </row>
     <row r="398" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D398" s="11"/>
+      <c r="D398" s="10"/>
     </row>
     <row r="399" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D399" s="11"/>
+      <c r="D399" s="10"/>
     </row>
     <row r="400" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D400" s="11"/>
+      <c r="D400" s="10"/>
     </row>
     <row r="401" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D401" s="11"/>
+      <c r="D401" s="10"/>
     </row>
     <row r="402" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D402" s="11"/>
+      <c r="D402" s="10"/>
     </row>
     <row r="403" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D403" s="11"/>
+      <c r="D403" s="10"/>
     </row>
     <row r="404" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D404" s="11"/>
+      <c r="D404" s="10"/>
     </row>
     <row r="405" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D405" s="11"/>
+      <c r="D405" s="10"/>
     </row>
     <row r="406" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D406" s="11"/>
+      <c r="D406" s="10"/>
     </row>
     <row r="407" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D407" s="11"/>
+      <c r="D407" s="10"/>
     </row>
     <row r="408" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D408" s="11"/>
+      <c r="D408" s="10"/>
     </row>
     <row r="409" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D409" s="11"/>
+      <c r="D409" s="10"/>
     </row>
     <row r="410" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D410" s="11"/>
+      <c r="D410" s="10"/>
     </row>
     <row r="411" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D411" s="11"/>
+      <c r="D411" s="10"/>
     </row>
     <row r="412" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D412" s="11"/>
+      <c r="D412" s="10"/>
     </row>
     <row r="413" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D413" s="11"/>
+      <c r="D413" s="10"/>
     </row>
     <row r="414" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D414" s="11"/>
+      <c r="D414" s="10"/>
     </row>
     <row r="415" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D415" s="11"/>
+      <c r="D415" s="10"/>
     </row>
     <row r="416" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D416" s="11"/>
+      <c r="D416" s="10"/>
     </row>
     <row r="417" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D417" s="11"/>
+      <c r="D417" s="10"/>
     </row>
     <row r="418" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D418" s="11"/>
+      <c r="D418" s="10"/>
     </row>
     <row r="419" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D419" s="11"/>
+      <c r="D419" s="10"/>
     </row>
     <row r="420" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D420" s="11"/>
+      <c r="D420" s="10"/>
     </row>
     <row r="421" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D421" s="11"/>
+      <c r="D421" s="10"/>
     </row>
     <row r="422" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D422" s="11"/>
+      <c r="D422" s="10"/>
     </row>
     <row r="423" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D423" s="11"/>
+      <c r="D423" s="10"/>
     </row>
     <row r="424" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D424" s="11"/>
+      <c r="D424" s="10"/>
     </row>
     <row r="425" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D425" s="11"/>
+      <c r="D425" s="10"/>
     </row>
     <row r="426" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D426" s="11"/>
+      <c r="D426" s="10"/>
     </row>
     <row r="427" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D427" s="11"/>
+      <c r="D427" s="10"/>
     </row>
     <row r="428" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D428" s="11"/>
+      <c r="D428" s="10"/>
     </row>
     <row r="429" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D429" s="11"/>
+      <c r="D429" s="10"/>
     </row>
     <row r="430" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D430" s="11"/>
+      <c r="D430" s="10"/>
     </row>
     <row r="431" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D431" s="11"/>
+      <c r="D431" s="10"/>
     </row>
     <row r="432" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D432" s="11"/>
+      <c r="D432" s="10"/>
     </row>
     <row r="433" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D433" s="11"/>
+      <c r="D433" s="10"/>
     </row>
     <row r="434" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D434" s="11"/>
+      <c r="D434" s="10"/>
     </row>
     <row r="435" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D435" s="11"/>
+      <c r="D435" s="10"/>
     </row>
     <row r="436" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D436" s="11"/>
+      <c r="D436" s="10"/>
     </row>
     <row r="437" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D437" s="11"/>
+      <c r="D437" s="10"/>
     </row>
     <row r="438" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D438" s="11"/>
+      <c r="D438" s="10"/>
     </row>
     <row r="439" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D439" s="11"/>
+      <c r="D439" s="10"/>
     </row>
     <row r="440" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D440" s="11"/>
+      <c r="D440" s="10"/>
     </row>
     <row r="441" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D441" s="11"/>
+      <c r="D441" s="10"/>
     </row>
     <row r="442" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D442" s="11"/>
+      <c r="D442" s="10"/>
     </row>
     <row r="443" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D443" s="11"/>
+      <c r="D443" s="10"/>
     </row>
     <row r="444" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D444" s="11"/>
+      <c r="D444" s="10"/>
     </row>
     <row r="445" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D445" s="11"/>
+      <c r="D445" s="10"/>
     </row>
     <row r="446" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D446" s="11"/>
+      <c r="D446" s="10"/>
     </row>
     <row r="447" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D447" s="11"/>
+      <c r="D447" s="10"/>
     </row>
     <row r="448" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D448" s="11"/>
+      <c r="D448" s="10"/>
     </row>
     <row r="449" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D449" s="11"/>
+      <c r="D449" s="10"/>
     </row>
     <row r="450" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D450" s="11"/>
+      <c r="D450" s="10"/>
     </row>
     <row r="451" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D451" s="11"/>
+      <c r="D451" s="10"/>
     </row>
     <row r="452" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D452" s="11"/>
+      <c r="D452" s="10"/>
     </row>
     <row r="453" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D453" s="11"/>
+      <c r="D453" s="10"/>
     </row>
     <row r="454" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D454" s="11"/>
+      <c r="D454" s="10"/>
     </row>
     <row r="455" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D455" s="11"/>
+      <c r="D455" s="10"/>
     </row>
     <row r="456" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D456" s="11"/>
+      <c r="D456" s="10"/>
     </row>
     <row r="457" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D457" s="11"/>
+      <c r="D457" s="10"/>
     </row>
     <row r="458" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D458" s="11"/>
+      <c r="D458" s="10"/>
     </row>
     <row r="459" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D459" s="11"/>
+      <c r="D459" s="10"/>
     </row>
     <row r="460" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D460" s="11"/>
+      <c r="D460" s="10"/>
     </row>
     <row r="461" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D461" s="11"/>
+      <c r="D461" s="10"/>
     </row>
     <row r="462" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D462" s="11"/>
+      <c r="D462" s="10"/>
     </row>
     <row r="463" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D463" s="11"/>
+      <c r="D463" s="10"/>
     </row>
     <row r="464" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D464" s="11"/>
+      <c r="D464" s="10"/>
     </row>
     <row r="465" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D465" s="11"/>
+      <c r="D465" s="10"/>
     </row>
     <row r="466" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D466" s="11"/>
+      <c r="D466" s="10"/>
     </row>
     <row r="467" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D467" s="11"/>
+      <c r="D467" s="10"/>
     </row>
     <row r="468" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D468" s="11"/>
+      <c r="D468" s="10"/>
     </row>
     <row r="469" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D469" s="11"/>
+      <c r="D469" s="10"/>
     </row>
     <row r="470" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D470" s="11"/>
+      <c r="D470" s="10"/>
     </row>
     <row r="471" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D471" s="11"/>
+      <c r="D471" s="10"/>
     </row>
     <row r="472" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D472" s="11"/>
+      <c r="D472" s="10"/>
     </row>
     <row r="473" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D473" s="11"/>
+      <c r="D473" s="10"/>
     </row>
     <row r="474" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D474" s="11"/>
+      <c r="D474" s="10"/>
     </row>
     <row r="475" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D475" s="11"/>
+      <c r="D475" s="10"/>
     </row>
     <row r="476" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D476" s="11"/>
+      <c r="D476" s="10"/>
     </row>
     <row r="477" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D477" s="11"/>
+      <c r="D477" s="10"/>
     </row>
     <row r="478" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D478" s="11"/>
+      <c r="D478" s="10"/>
     </row>
     <row r="479" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D479" s="11"/>
+      <c r="D479" s="10"/>
     </row>
     <row r="480" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D480" s="11"/>
+      <c r="D480" s="10"/>
     </row>
     <row r="481" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D481" s="11"/>
+      <c r="D481" s="10"/>
     </row>
     <row r="482" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D482" s="11"/>
+      <c r="D482" s="10"/>
     </row>
     <row r="483" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D483" s="11"/>
+      <c r="D483" s="10"/>
     </row>
     <row r="484" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D484" s="11"/>
+      <c r="D484" s="10"/>
     </row>
     <row r="485" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D485" s="11"/>
+      <c r="D485" s="10"/>
     </row>
     <row r="486" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D486" s="11"/>
+      <c r="D486" s="10"/>
     </row>
     <row r="487" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D487" s="11"/>
+      <c r="D487" s="10"/>
     </row>
     <row r="488" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D488" s="11"/>
+      <c r="D488" s="10"/>
     </row>
     <row r="489" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D489" s="11"/>
+      <c r="D489" s="10"/>
     </row>
     <row r="490" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D490" s="11"/>
+      <c r="D490" s="10"/>
     </row>
     <row r="491" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D491" s="11"/>
+      <c r="D491" s="10"/>
     </row>
     <row r="492" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D492" s="11"/>
+      <c r="D492" s="10"/>
     </row>
     <row r="493" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D493" s="11"/>
+      <c r="D493" s="10"/>
     </row>
     <row r="494" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D494" s="11"/>
+      <c r="D494" s="10"/>
     </row>
     <row r="495" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D495" s="11"/>
+      <c r="D495" s="10"/>
     </row>
     <row r="496" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D496" s="11"/>
+      <c r="D496" s="10"/>
     </row>
     <row r="497" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D497" s="11"/>
+      <c r="D497" s="10"/>
     </row>
     <row r="498" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D498" s="11"/>
+      <c r="D498" s="10"/>
     </row>
     <row r="499" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D499" s="11"/>
+      <c r="D499" s="10"/>
     </row>
     <row r="500" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D500" s="11"/>
+      <c r="D500" s="10"/>
     </row>
     <row r="501" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D501" s="11"/>
+      <c r="D501" s="10"/>
     </row>
     <row r="502" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D502" s="11"/>
+      <c r="D502" s="10"/>
     </row>
     <row r="503" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D503" s="11"/>
+      <c r="D503" s="10"/>
     </row>
     <row r="504" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D504" s="11"/>
+      <c r="D504" s="10"/>
     </row>
     <row r="505" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D505" s="11"/>
+      <c r="D505" s="10"/>
     </row>
     <row r="506" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D506" s="11"/>
+      <c r="D506" s="10"/>
     </row>
     <row r="507" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D507" s="11"/>
+      <c r="D507" s="10"/>
     </row>
     <row r="508" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D508" s="11"/>
+      <c r="D508" s="10"/>
     </row>
     <row r="509" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D509" s="11"/>
+      <c r="D509" s="10"/>
     </row>
     <row r="510" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D510" s="11"/>
+      <c r="D510" s="10"/>
     </row>
     <row r="511" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D511" s="11"/>
+      <c r="D511" s="10"/>
     </row>
     <row r="512" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D512" s="11"/>
+      <c r="D512" s="10"/>
     </row>
     <row r="513" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D513" s="11"/>
+      <c r="D513" s="10"/>
     </row>
     <row r="514" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D514" s="11"/>
+      <c r="D514" s="10"/>
     </row>
     <row r="515" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D515" s="11"/>
+      <c r="D515" s="10"/>
     </row>
     <row r="516" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D516" s="11"/>
+      <c r="D516" s="10"/>
     </row>
     <row r="517" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D517" s="11"/>
+      <c r="D517" s="10"/>
     </row>
     <row r="518" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D518" s="11"/>
+      <c r="D518" s="10"/>
     </row>
     <row r="519" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D519" s="11"/>
+      <c r="D519" s="10"/>
     </row>
     <row r="520" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D520" s="11"/>
+      <c r="D520" s="10"/>
     </row>
     <row r="521" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D521" s="11"/>
+      <c r="D521" s="10"/>
     </row>
     <row r="522" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D522" s="11"/>
+      <c r="D522" s="10"/>
     </row>
     <row r="523" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D523" s="11"/>
+      <c r="D523" s="10"/>
     </row>
     <row r="524" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D524" s="11"/>
+      <c r="D524" s="10"/>
     </row>
     <row r="525" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D525" s="11"/>
+      <c r="D525" s="10"/>
     </row>
     <row r="526" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D526" s="11"/>
+      <c r="D526" s="10"/>
     </row>
     <row r="527" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D527" s="11"/>
+      <c r="D527" s="10"/>
     </row>
     <row r="528" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D528" s="11"/>
+      <c r="D528" s="10"/>
     </row>
     <row r="529" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D529" s="11"/>
+      <c r="D529" s="10"/>
     </row>
     <row r="530" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D530" s="11"/>
+      <c r="D530" s="10"/>
     </row>
     <row r="531" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D531" s="11"/>
+      <c r="D531" s="10"/>
     </row>
     <row r="532" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D532" s="11"/>
+      <c r="D532" s="10"/>
     </row>
     <row r="533" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D533" s="11"/>
+      <c r="D533" s="10"/>
     </row>
     <row r="534" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D534" s="11"/>
+      <c r="D534" s="10"/>
     </row>
     <row r="535" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D535" s="11"/>
+      <c r="D535" s="10"/>
     </row>
     <row r="536" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D536" s="11"/>
+      <c r="D536" s="10"/>
     </row>
     <row r="537" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D537" s="11"/>
+      <c r="D537" s="10"/>
     </row>
     <row r="538" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D538" s="11"/>
+      <c r="D538" s="10"/>
     </row>
     <row r="539" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D539" s="11"/>
+      <c r="D539" s="10"/>
     </row>
     <row r="540" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D540" s="11"/>
+      <c r="D540" s="10"/>
     </row>
     <row r="541" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D541" s="11"/>
+      <c r="D541" s="10"/>
     </row>
     <row r="542" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D542" s="11"/>
+      <c r="D542" s="10"/>
     </row>
     <row r="543" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D543" s="11"/>
+      <c r="D543" s="10"/>
     </row>
     <row r="544" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D544" s="11"/>
+      <c r="D544" s="10"/>
     </row>
     <row r="545" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D545" s="11"/>
+      <c r="D545" s="10"/>
     </row>
     <row r="546" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D546" s="11"/>
+      <c r="D546" s="10"/>
     </row>
     <row r="547" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D547" s="11"/>
+      <c r="D547" s="10"/>
     </row>
     <row r="548" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D548" s="11"/>
+      <c r="D548" s="10"/>
     </row>
     <row r="549" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D549" s="11"/>
+      <c r="D549" s="10"/>
     </row>
     <row r="550" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D550" s="11"/>
+      <c r="D550" s="10"/>
     </row>
     <row r="551" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D551" s="11"/>
+      <c r="D551" s="10"/>
     </row>
     <row r="552" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D552" s="11"/>
+      <c r="D552" s="10"/>
     </row>
     <row r="553" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D553" s="11"/>
+      <c r="D553" s="10"/>
     </row>
     <row r="554" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D554" s="11"/>
+      <c r="D554" s="10"/>
     </row>
     <row r="555" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D555" s="11"/>
+      <c r="D555" s="10"/>
     </row>
     <row r="556" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D556" s="11"/>
+      <c r="D556" s="10"/>
     </row>
     <row r="557" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D557" s="11"/>
+      <c r="D557" s="10"/>
     </row>
     <row r="558" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D558" s="11"/>
+      <c r="D558" s="10"/>
     </row>
     <row r="559" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D559" s="11"/>
+      <c r="D559" s="10"/>
     </row>
     <row r="560" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D560" s="11"/>
+      <c r="D560" s="10"/>
     </row>
     <row r="561" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D561" s="11"/>
+      <c r="D561" s="10"/>
     </row>
     <row r="562" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D562" s="11"/>
+      <c r="D562" s="10"/>
     </row>
     <row r="563" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D563" s="11"/>
+      <c r="D563" s="10"/>
     </row>
     <row r="564" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D564" s="11"/>
+      <c r="D564" s="10"/>
     </row>
     <row r="565" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D565" s="11"/>
+      <c r="D565" s="10"/>
     </row>
     <row r="566" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D566" s="11"/>
+      <c r="D566" s="10"/>
     </row>
     <row r="567" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D567" s="11"/>
+      <c r="D567" s="10"/>
     </row>
     <row r="568" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D568" s="11"/>
+      <c r="D568" s="10"/>
     </row>
     <row r="569" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D569" s="11"/>
+      <c r="D569" s="10"/>
     </row>
     <row r="570" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D570" s="11"/>
+      <c r="D570" s="10"/>
     </row>
     <row r="571" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D571" s="11"/>
+      <c r="D571" s="10"/>
     </row>
     <row r="572" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D572" s="11"/>
+      <c r="D572" s="10"/>
     </row>
     <row r="573" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D573" s="11"/>
+      <c r="D573" s="10"/>
     </row>
     <row r="574" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D574" s="11"/>
+      <c r="D574" s="10"/>
     </row>
     <row r="575" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D575" s="11"/>
+      <c r="D575" s="10"/>
     </row>
     <row r="576" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D576" s="11"/>
+      <c r="D576" s="10"/>
     </row>
     <row r="577" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D577" s="11"/>
+      <c r="D577" s="10"/>
     </row>
     <row r="578" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D578" s="11"/>
+      <c r="D578" s="10"/>
     </row>
     <row r="579" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D579" s="11"/>
+      <c r="D579" s="10"/>
     </row>
     <row r="580" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D580" s="11"/>
+      <c r="D580" s="10"/>
     </row>
     <row r="581" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D581" s="11"/>
+      <c r="D581" s="10"/>
     </row>
     <row r="582" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D582" s="11"/>
+      <c r="D582" s="10"/>
     </row>
     <row r="583" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D583" s="11"/>
+      <c r="D583" s="10"/>
     </row>
     <row r="584" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D584" s="11"/>
+      <c r="D584" s="10"/>
     </row>
     <row r="585" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D585" s="11"/>
+      <c r="D585" s="10"/>
     </row>
     <row r="586" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D586" s="11"/>
+      <c r="D586" s="10"/>
     </row>
     <row r="587" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D587" s="11"/>
+      <c r="D587" s="10"/>
     </row>
     <row r="588" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D588" s="11"/>
+      <c r="D588" s="10"/>
     </row>
     <row r="589" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D589" s="11"/>
+      <c r="D589" s="10"/>
     </row>
     <row r="590" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D590" s="11"/>
+      <c r="D590" s="10"/>
     </row>
     <row r="591" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D591" s="11"/>
+      <c r="D591" s="10"/>
     </row>
     <row r="592" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D592" s="11"/>
+      <c r="D592" s="10"/>
     </row>
     <row r="593" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D593" s="11"/>
+      <c r="D593" s="10"/>
     </row>
     <row r="594" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D594" s="11"/>
+      <c r="D594" s="10"/>
     </row>
     <row r="595" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D595" s="11"/>
+      <c r="D595" s="10"/>
     </row>
     <row r="596" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D596" s="11"/>
+      <c r="D596" s="10"/>
     </row>
     <row r="597" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D597" s="11"/>
+      <c r="D597" s="10"/>
     </row>
     <row r="598" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D598" s="11"/>
+      <c r="D598" s="10"/>
     </row>
     <row r="599" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D599" s="11"/>
+      <c r="D599" s="10"/>
     </row>
     <row r="600" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D600" s="11"/>
+      <c r="D600" s="10"/>
     </row>
     <row r="601" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D601" s="11"/>
+      <c r="D601" s="10"/>
     </row>
     <row r="602" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D602" s="11"/>
+      <c r="D602" s="10"/>
     </row>
     <row r="603" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D603" s="11"/>
+      <c r="D603" s="10"/>
     </row>
     <row r="604" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D604" s="11"/>
+      <c r="D604" s="10"/>
     </row>
     <row r="605" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D605" s="11"/>
+      <c r="D605" s="10"/>
     </row>
     <row r="606" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D606" s="11"/>
+      <c r="D606" s="10"/>
     </row>
     <row r="607" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D607" s="11"/>
+      <c r="D607" s="10"/>
     </row>
     <row r="608" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D608" s="11"/>
+      <c r="D608" s="10"/>
     </row>
     <row r="609" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D609" s="11"/>
+      <c r="D609" s="10"/>
     </row>
     <row r="610" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D610" s="11"/>
+      <c r="D610" s="10"/>
     </row>
     <row r="611" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D611" s="11"/>
+      <c r="D611" s="10"/>
     </row>
     <row r="612" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D612" s="11"/>
+      <c r="D612" s="10"/>
     </row>
     <row r="613" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D613" s="11"/>
+      <c r="D613" s="10"/>
     </row>
     <row r="614" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D614" s="11"/>
+      <c r="D614" s="10"/>
     </row>
     <row r="615" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D615" s="11"/>
+      <c r="D615" s="10"/>
     </row>
     <row r="616" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D616" s="11"/>
+      <c r="D616" s="10"/>
     </row>
     <row r="617" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D617" s="11"/>
+      <c r="D617" s="10"/>
     </row>
     <row r="618" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D618" s="11"/>
+      <c r="D618" s="10"/>
     </row>
     <row r="619" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D619" s="11"/>
+      <c r="D619" s="10"/>
     </row>
     <row r="620" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D620" s="11"/>
+      <c r="D620" s="10"/>
     </row>
     <row r="621" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D621" s="11"/>
+      <c r="D621" s="10"/>
     </row>
     <row r="622" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D622" s="11"/>
+      <c r="D622" s="10"/>
     </row>
     <row r="623" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D623" s="11"/>
+      <c r="D623" s="10"/>
     </row>
     <row r="624" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D624" s="11"/>
+      <c r="D624" s="10"/>
     </row>
     <row r="625" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D625" s="11"/>
+      <c r="D625" s="10"/>
     </row>
     <row r="626" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D626" s="11"/>
+      <c r="D626" s="10"/>
     </row>
     <row r="627" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D627" s="11"/>
+      <c r="D627" s="10"/>
     </row>
     <row r="628" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D628" s="11"/>
+      <c r="D628" s="10"/>
     </row>
     <row r="629" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D629" s="11"/>
+      <c r="D629" s="10"/>
     </row>
     <row r="630" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D630" s="11"/>
+      <c r="D630" s="10"/>
     </row>
     <row r="631" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D631" s="11"/>
+      <c r="D631" s="10"/>
     </row>
     <row r="632" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D632" s="11"/>
+      <c r="D632" s="10"/>
     </row>
     <row r="633" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D633" s="11"/>
+      <c r="D633" s="10"/>
     </row>
     <row r="634" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D634" s="11"/>
+      <c r="D634" s="10"/>
     </row>
     <row r="635" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D635" s="11"/>
+      <c r="D635" s="10"/>
     </row>
     <row r="636" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D636" s="11"/>
+      <c r="D636" s="10"/>
     </row>
     <row r="637" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D637" s="11"/>
+      <c r="D637" s="10"/>
     </row>
     <row r="638" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D638" s="11"/>
+      <c r="D638" s="10"/>
     </row>
     <row r="639" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D639" s="11"/>
+      <c r="D639" s="10"/>
     </row>
     <row r="640" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D640" s="11"/>
+      <c r="D640" s="10"/>
     </row>
     <row r="641" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D641" s="11"/>
+      <c r="D641" s="10"/>
     </row>
     <row r="642" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D642" s="11"/>
+      <c r="D642" s="10"/>
     </row>
     <row r="643" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D643" s="11"/>
+      <c r="D643" s="10"/>
     </row>
     <row r="644" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D644" s="11"/>
+      <c r="D644" s="10"/>
     </row>
     <row r="645" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D645" s="11"/>
+      <c r="D645" s="10"/>
     </row>
     <row r="646" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D646" s="11"/>
+      <c r="D646" s="10"/>
     </row>
     <row r="647" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D647" s="11"/>
+      <c r="D647" s="10"/>
     </row>
     <row r="648" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D648" s="11"/>
+      <c r="D648" s="10"/>
     </row>
     <row r="649" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D649" s="11"/>
+      <c r="D649" s="10"/>
     </row>
     <row r="650" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D650" s="11"/>
+      <c r="D650" s="10"/>
     </row>
     <row r="651" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D651" s="11"/>
+      <c r="D651" s="10"/>
     </row>
     <row r="652" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D652" s="11"/>
+      <c r="D652" s="10"/>
     </row>
     <row r="653" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D653" s="11"/>
+      <c r="D653" s="10"/>
     </row>
     <row r="654" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D654" s="11"/>
+      <c r="D654" s="10"/>
     </row>
     <row r="655" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D655" s="11"/>
+      <c r="D655" s="10"/>
     </row>
     <row r="656" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D656" s="11"/>
+      <c r="D656" s="10"/>
     </row>
     <row r="657" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D657" s="11"/>
+      <c r="D657" s="10"/>
     </row>
     <row r="658" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D658" s="11"/>
+      <c r="D658" s="10"/>
     </row>
     <row r="659" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D659" s="11"/>
+      <c r="D659" s="10"/>
     </row>
     <row r="660" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D660" s="11"/>
+      <c r="D660" s="10"/>
     </row>
     <row r="661" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D661" s="11"/>
+      <c r="D661" s="10"/>
     </row>
     <row r="662" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D662" s="11"/>
+      <c r="D662" s="10"/>
     </row>
     <row r="663" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D663" s="11"/>
+      <c r="D663" s="10"/>
     </row>
     <row r="664" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D664" s="11"/>
+      <c r="D664" s="10"/>
     </row>
     <row r="665" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D665" s="11"/>
+      <c r="D665" s="10"/>
     </row>
     <row r="666" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D666" s="11"/>
+      <c r="D666" s="10"/>
     </row>
     <row r="667" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D667" s="11"/>
+      <c r="D667" s="10"/>
     </row>
     <row r="668" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D668" s="11"/>
+      <c r="D668" s="10"/>
     </row>
     <row r="669" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D669" s="11"/>
+      <c r="D669" s="10"/>
     </row>
     <row r="670" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D670" s="11"/>
+      <c r="D670" s="10"/>
     </row>
     <row r="671" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D671" s="11"/>
+      <c r="D671" s="10"/>
     </row>
     <row r="672" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D672" s="11"/>
+      <c r="D672" s="10"/>
     </row>
     <row r="673" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D673" s="11"/>
+      <c r="D673" s="10"/>
     </row>
     <row r="674" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D674" s="11"/>
+      <c r="D674" s="10"/>
     </row>
     <row r="675" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D675" s="11"/>
+      <c r="D675" s="10"/>
     </row>
     <row r="676" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D676" s="11"/>
+      <c r="D676" s="10"/>
     </row>
     <row r="677" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D677" s="11"/>
+      <c r="D677" s="10"/>
     </row>
     <row r="678" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D678" s="11"/>
+      <c r="D678" s="10"/>
     </row>
     <row r="679" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D679" s="11"/>
+      <c r="D679" s="10"/>
     </row>
     <row r="680" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D680" s="11"/>
+      <c r="D680" s="10"/>
     </row>
     <row r="681" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D681" s="11"/>
+      <c r="D681" s="10"/>
     </row>
     <row r="682" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D682" s="11"/>
+      <c r="D682" s="10"/>
     </row>
     <row r="683" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D683" s="11"/>
+      <c r="D683" s="10"/>
     </row>
     <row r="684" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D684" s="11"/>
+      <c r="D684" s="10"/>
     </row>
     <row r="685" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D685" s="11"/>
+      <c r="D685" s="10"/>
     </row>
     <row r="686" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D686" s="11"/>
+      <c r="D686" s="10"/>
     </row>
     <row r="687" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D687" s="11"/>
+      <c r="D687" s="10"/>
     </row>
     <row r="688" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D688" s="11"/>
+      <c r="D688" s="10"/>
     </row>
     <row r="689" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D689" s="11"/>
+      <c r="D689" s="10"/>
     </row>
     <row r="690" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D690" s="11"/>
+      <c r="D690" s="10"/>
     </row>
     <row r="691" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D691" s="11"/>
+      <c r="D691" s="10"/>
     </row>
     <row r="692" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D692" s="11"/>
+      <c r="D692" s="10"/>
     </row>
     <row r="693" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D693" s="11"/>
+      <c r="D693" s="10"/>
     </row>
     <row r="694" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D694" s="11"/>
+      <c r="D694" s="10"/>
     </row>
     <row r="695" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D695" s="11"/>
+      <c r="D695" s="10"/>
     </row>
     <row r="696" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D696" s="11"/>
+      <c r="D696" s="10"/>
     </row>
     <row r="697" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D697" s="11"/>
+      <c r="D697" s="10"/>
     </row>
     <row r="698" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D698" s="11"/>
+      <c r="D698" s="10"/>
     </row>
     <row r="699" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D699" s="11"/>
+      <c r="D699" s="10"/>
     </row>
     <row r="700" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D700" s="11"/>
+      <c r="D700" s="10"/>
     </row>
     <row r="701" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D701" s="11"/>
+      <c r="D701" s="10"/>
     </row>
     <row r="702" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D702" s="11"/>
+      <c r="D702" s="10"/>
     </row>
     <row r="703" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D703" s="11"/>
+      <c r="D703" s="10"/>
     </row>
     <row r="704" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D704" s="11"/>
+      <c r="D704" s="10"/>
     </row>
     <row r="705" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D705" s="11"/>
+      <c r="D705" s="10"/>
     </row>
     <row r="706" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D706" s="11"/>
+      <c r="D706" s="10"/>
     </row>
     <row r="707" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D707" s="11"/>
+      <c r="D707" s="10"/>
     </row>
     <row r="708" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D708" s="11"/>
+      <c r="D708" s="10"/>
     </row>
     <row r="709" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D709" s="11"/>
+      <c r="D709" s="10"/>
     </row>
     <row r="710" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D710" s="11"/>
+      <c r="D710" s="10"/>
     </row>
     <row r="711" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D711" s="11"/>
+      <c r="D711" s="10"/>
     </row>
     <row r="712" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D712" s="11"/>
+      <c r="D712" s="10"/>
     </row>
     <row r="713" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D713" s="11"/>
+      <c r="D713" s="10"/>
     </row>
     <row r="714" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D714" s="11"/>
+      <c r="D714" s="10"/>
     </row>
     <row r="715" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D715" s="11"/>
+      <c r="D715" s="10"/>
     </row>
     <row r="716" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D716" s="11"/>
+      <c r="D716" s="10"/>
     </row>
     <row r="717" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D717" s="11"/>
+      <c r="D717" s="10"/>
     </row>
     <row r="718" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D718" s="11"/>
+      <c r="D718" s="10"/>
     </row>
     <row r="719" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D719" s="11"/>
+      <c r="D719" s="10"/>
     </row>
     <row r="720" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D720" s="11"/>
+      <c r="D720" s="10"/>
     </row>
     <row r="721" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D721" s="11"/>
+      <c r="D721" s="10"/>
     </row>
     <row r="722" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D722" s="11"/>
+      <c r="D722" s="10"/>
     </row>
     <row r="723" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D723" s="11"/>
+      <c r="D723" s="10"/>
     </row>
     <row r="724" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D724" s="11"/>
+      <c r="D724" s="10"/>
     </row>
     <row r="725" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D725" s="11"/>
+      <c r="D725" s="10"/>
     </row>
     <row r="726" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D726" s="11"/>
+      <c r="D726" s="10"/>
     </row>
     <row r="727" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D727" s="11"/>
+      <c r="D727" s="10"/>
     </row>
     <row r="728" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D728" s="11"/>
+      <c r="D728" s="10"/>
     </row>
     <row r="729" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D729" s="11"/>
+      <c r="D729" s="10"/>
     </row>
     <row r="730" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D730" s="11"/>
+      <c r="D730" s="10"/>
     </row>
     <row r="731" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D731" s="11"/>
+      <c r="D731" s="10"/>
     </row>
     <row r="732" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D732" s="11"/>
+      <c r="D732" s="10"/>
     </row>
     <row r="733" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D733" s="11"/>
+      <c r="D733" s="10"/>
     </row>
     <row r="734" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D734" s="11"/>
+      <c r="D734" s="10"/>
     </row>
     <row r="735" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D735" s="11"/>
+      <c r="D735" s="10"/>
     </row>
     <row r="736" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D736" s="11"/>
+      <c r="D736" s="10"/>
     </row>
     <row r="737" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D737" s="11"/>
+      <c r="D737" s="10"/>
     </row>
     <row r="738" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D738" s="11"/>
+      <c r="D738" s="10"/>
     </row>
     <row r="739" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D739" s="11"/>
+      <c r="D739" s="10"/>
     </row>
     <row r="740" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D740" s="11"/>
+      <c r="D740" s="10"/>
     </row>
     <row r="741" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D741" s="11"/>
+      <c r="D741" s="10"/>
     </row>
     <row r="742" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D742" s="11"/>
+      <c r="D742" s="10"/>
     </row>
     <row r="743" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D743" s="11"/>
+      <c r="D743" s="10"/>
     </row>
     <row r="744" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D744" s="11"/>
+      <c r="D744" s="10"/>
     </row>
     <row r="745" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D745" s="11"/>
+      <c r="D745" s="10"/>
     </row>
     <row r="746" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D746" s="11"/>
+      <c r="D746" s="10"/>
     </row>
     <row r="747" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D747" s="11"/>
+      <c r="D747" s="10"/>
     </row>
     <row r="748" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D748" s="11"/>
+      <c r="D748" s="10"/>
     </row>
     <row r="749" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D749" s="11"/>
+      <c r="D749" s="10"/>
     </row>
     <row r="750" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D750" s="11"/>
+      <c r="D750" s="10"/>
     </row>
     <row r="751" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D751" s="11"/>
+      <c r="D751" s="10"/>
     </row>
     <row r="752" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D752" s="11"/>
+      <c r="D752" s="10"/>
     </row>
     <row r="753" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D753" s="11"/>
+      <c r="D753" s="10"/>
     </row>
     <row r="754" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D754" s="11"/>
+      <c r="D754" s="10"/>
     </row>
     <row r="755" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D755" s="11"/>
+      <c r="D755" s="10"/>
     </row>
     <row r="756" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D756" s="11"/>
+      <c r="D756" s="10"/>
     </row>
     <row r="757" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D757" s="11"/>
+      <c r="D757" s="10"/>
     </row>
     <row r="758" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D758" s="11"/>
+      <c r="D758" s="10"/>
     </row>
     <row r="759" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D759" s="11"/>
+      <c r="D759" s="10"/>
     </row>
     <row r="760" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D760" s="11"/>
+      <c r="D760" s="10"/>
     </row>
     <row r="761" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D761" s="11"/>
+      <c r="D761" s="10"/>
     </row>
     <row r="762" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D762" s="11"/>
+      <c r="D762" s="10"/>
     </row>
     <row r="763" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D763" s="11"/>
+      <c r="D763" s="10"/>
     </row>
     <row r="764" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D764" s="11"/>
+      <c r="D764" s="10"/>
     </row>
     <row r="765" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D765" s="11"/>
+      <c r="D765" s="10"/>
     </row>
     <row r="766" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D766" s="11"/>
+      <c r="D766" s="10"/>
     </row>
     <row r="767" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D767" s="11"/>
+      <c r="D767" s="10"/>
     </row>
     <row r="768" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D768" s="11"/>
+      <c r="D768" s="10"/>
     </row>
     <row r="769" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D769" s="11"/>
+      <c r="D769" s="10"/>
     </row>
     <row r="770" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D770" s="11"/>
+      <c r="D770" s="10"/>
     </row>
     <row r="771" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D771" s="11"/>
+      <c r="D771" s="10"/>
     </row>
     <row r="772" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D772" s="11"/>
+      <c r="D772" s="10"/>
     </row>
     <row r="773" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D773" s="11"/>
+      <c r="D773" s="10"/>
     </row>
     <row r="774" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D774" s="11"/>
+      <c r="D774" s="10"/>
     </row>
     <row r="775" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D775" s="11"/>
+      <c r="D775" s="10"/>
     </row>
     <row r="776" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D776" s="11"/>
+      <c r="D776" s="10"/>
     </row>
     <row r="777" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D777" s="11"/>
+      <c r="D777" s="10"/>
     </row>
     <row r="778" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D778" s="11"/>
+      <c r="D778" s="10"/>
     </row>
     <row r="779" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D779" s="11"/>
+      <c r="D779" s="10"/>
     </row>
     <row r="780" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D780" s="11"/>
+      <c r="D780" s="10"/>
     </row>
     <row r="781" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D781" s="11"/>
+      <c r="D781" s="10"/>
     </row>
     <row r="782" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D782" s="11"/>
+      <c r="D782" s="10"/>
     </row>
     <row r="783" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D783" s="11"/>
+      <c r="D783" s="10"/>
     </row>
     <row r="784" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D784" s="11"/>
+      <c r="D784" s="10"/>
     </row>
     <row r="785" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D785" s="11"/>
+      <c r="D785" s="10"/>
     </row>
     <row r="786" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D786" s="11"/>
+      <c r="D786" s="10"/>
     </row>
     <row r="787" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D787" s="11"/>
+      <c r="D787" s="10"/>
     </row>
     <row r="788" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D788" s="11"/>
+      <c r="D788" s="10"/>
     </row>
     <row r="789" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D789" s="11"/>
+      <c r="D789" s="10"/>
     </row>
     <row r="790" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D790" s="11"/>
+      <c r="D790" s="10"/>
     </row>
     <row r="791" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D791" s="11"/>
+      <c r="D791" s="10"/>
     </row>
     <row r="792" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D792" s="11"/>
+      <c r="D792" s="10"/>
     </row>
     <row r="793" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D793" s="11"/>
+      <c r="D793" s="10"/>
     </row>
     <row r="794" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D794" s="11"/>
+      <c r="D794" s="10"/>
     </row>
     <row r="795" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D795" s="11"/>
+      <c r="D795" s="10"/>
     </row>
     <row r="796" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D796" s="11"/>
+      <c r="D796" s="10"/>
     </row>
     <row r="797" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D797" s="11"/>
+      <c r="D797" s="10"/>
     </row>
     <row r="798" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D798" s="11"/>
+      <c r="D798" s="10"/>
     </row>
     <row r="799" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D799" s="11"/>
+      <c r="D799" s="10"/>
     </row>
     <row r="800" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D800" s="11"/>
+      <c r="D800" s="10"/>
     </row>
     <row r="801" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D801" s="11"/>
+      <c r="D801" s="10"/>
     </row>
     <row r="802" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D802" s="11"/>
+      <c r="D802" s="10"/>
     </row>
     <row r="803" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D803" s="11"/>
+      <c r="D803" s="10"/>
     </row>
     <row r="804" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D804" s="11"/>
+      <c r="D804" s="10"/>
     </row>
     <row r="805" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D805" s="11"/>
+      <c r="D805" s="10"/>
     </row>
     <row r="806" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D806" s="11"/>
+      <c r="D806" s="10"/>
     </row>
     <row r="807" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D807" s="11"/>
+      <c r="D807" s="10"/>
     </row>
     <row r="808" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D808" s="11"/>
+      <c r="D808" s="10"/>
     </row>
     <row r="809" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D809" s="11"/>
+      <c r="D809" s="10"/>
     </row>
     <row r="810" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D810" s="11"/>
+      <c r="D810" s="10"/>
     </row>
     <row r="811" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D811" s="11"/>
+      <c r="D811" s="10"/>
     </row>
     <row r="812" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D812" s="11"/>
+      <c r="D812" s="10"/>
     </row>
     <row r="813" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D813" s="11"/>
+      <c r="D813" s="10"/>
     </row>
     <row r="814" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D814" s="11"/>
+      <c r="D814" s="10"/>
     </row>
     <row r="815" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D815" s="11"/>
+      <c r="D815" s="10"/>
     </row>
     <row r="816" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D816" s="11"/>
+      <c r="D816" s="10"/>
     </row>
     <row r="817" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D817" s="11"/>
+      <c r="D817" s="10"/>
     </row>
     <row r="818" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D818" s="11"/>
+      <c r="D818" s="10"/>
     </row>
     <row r="819" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D819" s="11"/>
+      <c r="D819" s="10"/>
     </row>
     <row r="820" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D820" s="11"/>
+      <c r="D820" s="10"/>
     </row>
     <row r="821" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D821" s="11"/>
+      <c r="D821" s="10"/>
     </row>
     <row r="822" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D822" s="11"/>
+      <c r="D822" s="10"/>
     </row>
     <row r="823" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D823" s="11"/>
+      <c r="D823" s="10"/>
     </row>
     <row r="824" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D824" s="11"/>
+      <c r="D824" s="10"/>
     </row>
     <row r="825" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D825" s="11"/>
+      <c r="D825" s="10"/>
     </row>
     <row r="826" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D826" s="11"/>
+      <c r="D826" s="10"/>
     </row>
     <row r="827" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D827" s="11"/>
+      <c r="D827" s="10"/>
     </row>
     <row r="828" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D828" s="11"/>
+      <c r="D828" s="10"/>
     </row>
     <row r="829" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D829" s="11"/>
+      <c r="D829" s="10"/>
     </row>
     <row r="830" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D830" s="11"/>
+      <c r="D830" s="10"/>
     </row>
     <row r="831" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D831" s="11"/>
+      <c r="D831" s="10"/>
     </row>
     <row r="832" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D832" s="11"/>
+      <c r="D832" s="10"/>
     </row>
     <row r="833" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D833" s="11"/>
+      <c r="D833" s="10"/>
     </row>
     <row r="834" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D834" s="11"/>
+      <c r="D834" s="10"/>
     </row>
     <row r="835" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D835" s="11"/>
+      <c r="D835" s="10"/>
     </row>
     <row r="836" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D836" s="11"/>
+      <c r="D836" s="10"/>
     </row>
     <row r="837" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D837" s="11"/>
+      <c r="D837" s="10"/>
     </row>
     <row r="838" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D838" s="11"/>
+      <c r="D838" s="10"/>
     </row>
     <row r="839" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D839" s="11"/>
+      <c r="D839" s="10"/>
     </row>
     <row r="840" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D840" s="11"/>
+      <c r="D840" s="10"/>
     </row>
     <row r="841" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D841" s="11"/>
+      <c r="D841" s="10"/>
     </row>
     <row r="842" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D842" s="11"/>
+      <c r="D842" s="10"/>
     </row>
     <row r="843" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D843" s="11"/>
+      <c r="D843" s="10"/>
     </row>
     <row r="844" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D844" s="11"/>
+      <c r="D844" s="10"/>
     </row>
     <row r="845" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D845" s="11"/>
+      <c r="D845" s="10"/>
     </row>
     <row r="846" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D846" s="11"/>
+      <c r="D846" s="10"/>
     </row>
     <row r="847" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D847" s="11"/>
+      <c r="D847" s="10"/>
     </row>
     <row r="848" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D848" s="11"/>
+      <c r="D848" s="10"/>
     </row>
     <row r="849" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D849" s="11"/>
+      <c r="D849" s="10"/>
     </row>
     <row r="850" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D850" s="11"/>
+      <c r="D850" s="10"/>
     </row>
     <row r="851" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D851" s="11"/>
+      <c r="D851" s="10"/>
     </row>
     <row r="852" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D852" s="11"/>
+      <c r="D852" s="10"/>
     </row>
     <row r="853" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D853" s="11"/>
+      <c r="D853" s="10"/>
     </row>
     <row r="854" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D854" s="11"/>
+      <c r="D854" s="10"/>
     </row>
     <row r="855" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D855" s="11"/>
+      <c r="D855" s="10"/>
     </row>
     <row r="856" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D856" s="11"/>
+      <c r="D856" s="10"/>
     </row>
     <row r="857" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D857" s="11"/>
+      <c r="D857" s="10"/>
     </row>
     <row r="858" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D858" s="11"/>
+      <c r="D858" s="10"/>
     </row>
     <row r="859" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D859" s="11"/>
+      <c r="D859" s="10"/>
     </row>
     <row r="860" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D860" s="11"/>
+      <c r="D860" s="10"/>
     </row>
     <row r="861" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D861" s="11"/>
+      <c r="D861" s="10"/>
     </row>
     <row r="862" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D862" s="11"/>
+      <c r="D862" s="10"/>
     </row>
     <row r="863" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D863" s="11"/>
+      <c r="D863" s="10"/>
     </row>
     <row r="864" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D864" s="11"/>
+      <c r="D864" s="10"/>
     </row>
     <row r="865" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D865" s="11"/>
+      <c r="D865" s="10"/>
     </row>
     <row r="866" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D866" s="11"/>
+      <c r="D866" s="10"/>
     </row>
     <row r="867" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D867" s="11"/>
+      <c r="D867" s="10"/>
     </row>
     <row r="868" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D868" s="11"/>
+      <c r="D868" s="10"/>
     </row>
     <row r="869" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D869" s="11"/>
+      <c r="D869" s="10"/>
     </row>
     <row r="870" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D870" s="11"/>
+      <c r="D870" s="10"/>
     </row>
     <row r="871" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D871" s="11"/>
+      <c r="D871" s="10"/>
     </row>
     <row r="872" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D872" s="11"/>
+      <c r="D872" s="10"/>
     </row>
     <row r="873" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D873" s="11"/>
+      <c r="D873" s="10"/>
     </row>
     <row r="874" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D874" s="11"/>
+      <c r="D874" s="10"/>
     </row>
     <row r="875" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D875" s="11"/>
+      <c r="D875" s="10"/>
     </row>
     <row r="876" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D876" s="11"/>
+      <c r="D876" s="10"/>
     </row>
     <row r="877" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D877" s="11"/>
+      <c r="D877" s="10"/>
     </row>
     <row r="878" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D878" s="11"/>
+      <c r="D878" s="10"/>
     </row>
     <row r="879" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D879" s="11"/>
+      <c r="D879" s="10"/>
     </row>
     <row r="880" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D880" s="11"/>
+      <c r="D880" s="10"/>
     </row>
     <row r="881" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D881" s="11"/>
+      <c r="D881" s="10"/>
     </row>
     <row r="882" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D882" s="11"/>
+      <c r="D882" s="10"/>
     </row>
     <row r="883" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D883" s="11"/>
+      <c r="D883" s="10"/>
     </row>
     <row r="884" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D884" s="11"/>
+      <c r="D884" s="10"/>
     </row>
     <row r="885" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D885" s="11"/>
+      <c r="D885" s="10"/>
     </row>
     <row r="886" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D886" s="11"/>
+      <c r="D886" s="10"/>
     </row>
     <row r="887" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D887" s="11"/>
+      <c r="D887" s="10"/>
     </row>
     <row r="888" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D888" s="11"/>
+      <c r="D888" s="10"/>
     </row>
     <row r="889" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D889" s="11"/>
+      <c r="D889" s="10"/>
     </row>
     <row r="890" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D890" s="11"/>
+      <c r="D890" s="10"/>
     </row>
     <row r="891" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D891" s="11"/>
+      <c r="D891" s="10"/>
     </row>
     <row r="892" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D892" s="11"/>
+      <c r="D892" s="10"/>
     </row>
     <row r="893" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D893" s="11"/>
+      <c r="D893" s="10"/>
     </row>
     <row r="894" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D894" s="11"/>
+      <c r="D894" s="10"/>
     </row>
     <row r="895" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D895" s="11"/>
+      <c r="D895" s="10"/>
     </row>
     <row r="896" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D896" s="11"/>
+      <c r="D896" s="10"/>
     </row>
     <row r="897" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D897" s="11"/>
+      <c r="D897" s="10"/>
     </row>
     <row r="898" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D898" s="11"/>
+      <c r="D898" s="10"/>
     </row>
     <row r="899" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D899" s="11"/>
+      <c r="D899" s="10"/>
     </row>
     <row r="900" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D900" s="11"/>
+      <c r="D900" s="10"/>
     </row>
     <row r="901" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D901" s="11"/>
+      <c r="D901" s="10"/>
     </row>
     <row r="902" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D902" s="11"/>
+      <c r="D902" s="10"/>
     </row>
     <row r="903" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D903" s="11"/>
+      <c r="D903" s="10"/>
     </row>
     <row r="904" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D904" s="11"/>
+      <c r="D904" s="10"/>
     </row>
     <row r="905" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D905" s="11"/>
+      <c r="D905" s="10"/>
     </row>
     <row r="906" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D906" s="11"/>
+      <c r="D906" s="10"/>
     </row>
     <row r="907" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D907" s="11"/>
+      <c r="D907" s="10"/>
     </row>
     <row r="908" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D908" s="11"/>
+      <c r="D908" s="10"/>
     </row>
     <row r="909" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D909" s="11"/>
+      <c r="D909" s="10"/>
     </row>
     <row r="910" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D910" s="11"/>
+      <c r="D910" s="10"/>
     </row>
     <row r="911" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D911" s="11"/>
+      <c r="D911" s="10"/>
     </row>
     <row r="912" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D912" s="11"/>
+      <c r="D912" s="10"/>
     </row>
     <row r="913" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D913" s="11"/>
+      <c r="D913" s="10"/>
     </row>
     <row r="914" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D914" s="11"/>
+      <c r="D914" s="10"/>
     </row>
     <row r="915" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D915" s="11"/>
+      <c r="D915" s="10"/>
     </row>
     <row r="916" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D916" s="11"/>
+      <c r="D916" s="10"/>
     </row>
     <row r="917" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D917" s="11"/>
+      <c r="D917" s="10"/>
     </row>
     <row r="918" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D918" s="11"/>
+      <c r="D918" s="10"/>
     </row>
     <row r="919" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D919" s="11"/>
+      <c r="D919" s="10"/>
     </row>
     <row r="920" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D920" s="11"/>
+      <c r="D920" s="10"/>
     </row>
     <row r="921" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D921" s="11"/>
+      <c r="D921" s="10"/>
     </row>
     <row r="922" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D922" s="11"/>
+      <c r="D922" s="10"/>
     </row>
     <row r="923" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D923" s="11"/>
+      <c r="D923" s="10"/>
     </row>
     <row r="924" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D924" s="11"/>
+      <c r="D924" s="10"/>
     </row>
     <row r="925" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D925" s="11"/>
+      <c r="D925" s="10"/>
     </row>
     <row r="926" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D926" s="11"/>
+      <c r="D926" s="10"/>
     </row>
     <row r="927" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D927" s="11"/>
+      <c r="D927" s="10"/>
     </row>
     <row r="928" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D928" s="11"/>
+      <c r="D928" s="10"/>
     </row>
     <row r="929" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D929" s="11"/>
+      <c r="D929" s="10"/>
     </row>
     <row r="930" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D930" s="11"/>
+      <c r="D930" s="10"/>
     </row>
     <row r="931" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D931" s="11"/>
+      <c r="D931" s="10"/>
     </row>
     <row r="932" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D932" s="11"/>
+      <c r="D932" s="10"/>
     </row>
     <row r="933" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D933" s="11"/>
+      <c r="D933" s="10"/>
     </row>
     <row r="934" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D934" s="11"/>
+      <c r="D934" s="10"/>
     </row>
     <row r="935" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D935" s="11"/>
+      <c r="D935" s="10"/>
     </row>
     <row r="936" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D936" s="11"/>
+      <c r="D936" s="10"/>
     </row>
     <row r="937" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D937" s="11"/>
+      <c r="D937" s="10"/>
     </row>
     <row r="938" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D938" s="11"/>
+      <c r="D938" s="10"/>
     </row>
     <row r="939" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D939" s="11"/>
+      <c r="D939" s="10"/>
     </row>
     <row r="940" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D940" s="11"/>
+      <c r="D940" s="10"/>
     </row>
     <row r="941" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D941" s="11"/>
+      <c r="D941" s="10"/>
     </row>
     <row r="942" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D942" s="11"/>
+      <c r="D942" s="10"/>
     </row>
     <row r="943" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D943" s="11"/>
+      <c r="D943" s="10"/>
     </row>
     <row r="944" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D944" s="11"/>
+      <c r="D944" s="10"/>
     </row>
     <row r="945" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D945" s="11"/>
+      <c r="D945" s="10"/>
     </row>
     <row r="946" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D946" s="11"/>
+      <c r="D946" s="10"/>
     </row>
     <row r="947" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D947" s="11"/>
+      <c r="D947" s="10"/>
     </row>
     <row r="948" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D948" s="11"/>
+      <c r="D948" s="10"/>
     </row>
     <row r="949" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D949" s="11"/>
+      <c r="D949" s="10"/>
     </row>
     <row r="950" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D950" s="11"/>
+      <c r="D950" s="10"/>
     </row>
     <row r="951" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D951" s="11"/>
+      <c r="D951" s="10"/>
     </row>
     <row r="952" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D952" s="11"/>
+      <c r="D952" s="10"/>
     </row>
     <row r="953" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D953" s="11"/>
+      <c r="D953" s="10"/>
     </row>
     <row r="954" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D954" s="11"/>
+      <c r="D954" s="10"/>
     </row>
     <row r="955" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D955" s="11"/>
+      <c r="D955" s="10"/>
     </row>
     <row r="956" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D956" s="11"/>
+      <c r="D956" s="10"/>
     </row>
     <row r="957" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D957" s="11"/>
+      <c r="D957" s="10"/>
     </row>
     <row r="958" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D958" s="11"/>
+      <c r="D958" s="10"/>
     </row>
     <row r="959" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D959" s="11"/>
+      <c r="D959" s="10"/>
     </row>
     <row r="960" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D960" s="11"/>
+      <c r="D960" s="10"/>
     </row>
     <row r="961" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D961" s="11"/>
+      <c r="D961" s="10"/>
     </row>
     <row r="962" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D962" s="11"/>
+      <c r="D962" s="10"/>
     </row>
     <row r="963" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D963" s="11"/>
+      <c r="D963" s="10"/>
     </row>
     <row r="964" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D964" s="11"/>
+      <c r="D964" s="10"/>
     </row>
     <row r="965" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D965" s="11"/>
+      <c r="D965" s="10"/>
     </row>
     <row r="966" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D966" s="11"/>
+      <c r="D966" s="10"/>
     </row>
     <row r="967" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D967" s="11"/>
-    </row>
-    <row r="968" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D968" s="11"/>
-    </row>
-    <row r="969" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D969" s="11"/>
-    </row>
-    <row r="970" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D970" s="11"/>
-    </row>
-    <row r="971" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D971" s="11"/>
-    </row>
-    <row r="972" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D972" s="11"/>
-    </row>
-    <row r="973" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D973" s="11"/>
-    </row>
-    <row r="974" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D974" s="11"/>
-    </row>
-    <row r="975" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D975" s="11"/>
-    </row>
-    <row r="976" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D976" s="11"/>
-    </row>
-    <row r="977" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D977" s="11"/>
-    </row>
-    <row r="978" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D978" s="11"/>
-    </row>
-    <row r="979" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D979" s="11"/>
-    </row>
-    <row r="980" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D980" s="11"/>
-    </row>
-    <row r="981" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D981" s="11"/>
-    </row>
-    <row r="982" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D982" s="11"/>
-    </row>
-    <row r="983" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D983" s="11"/>
-    </row>
-    <row r="984" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D984" s="11"/>
-    </row>
+      <c r="D967" s="10"/>
+    </row>
+    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3818,13 +3488,13 @@
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A13:D13"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E34" r:id="rId1" display="https://www.microelectronicash.com/lp-sw-213ci--det--LP-SW-213CI"/>
-    <hyperlink ref="E35" r:id="rId2" display="https://www.microelectronicash.com/jk-dc021--det--JK-DC021"/>
+    <hyperlink ref="E17" r:id="rId1" display="https://www.microelectronicash.com/lp-sw-213ci--det--LP-SW-213CI"/>
+    <hyperlink ref="E18" r:id="rId2" display="https://www.microelectronicash.com/jk-dc021--det--JK-DC021"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -3847,7 +3517,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="1" style="0" width="10.71"/>
   </cols>
@@ -4854,7 +4524,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="1" style="0" width="10.71"/>
   </cols>
